--- a/S2_Table.xlsx
+++ b/S2_Table.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\研究生\7_工作\COVID-19论文\COVID-19表格\整理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangbingbo\Desktop\研究生工作\2020 董夏楠\SARS-CoV-2-Human Protein-Protein Interaction Map\paper\submit\BIB\evidence of 78 genes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC91034-A466-4928-8D8C-3DC80F85BFA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14625" yWindow="510" windowWidth="23100" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="COVID-19" sheetId="1" r:id="rId1"/>
-    <sheet name="SARS" sheetId="2" r:id="rId2"/>
-    <sheet name="H1N1" sheetId="3" r:id="rId3"/>
-    <sheet name="70 C3 disease modules " sheetId="4" r:id="rId4"/>
+    <sheet name="Disease biology of core" sheetId="5" r:id="rId1"/>
+    <sheet name="COVID-19" sheetId="1" r:id="rId2"/>
+    <sheet name="SARS" sheetId="2" r:id="rId3"/>
+    <sheet name="H1N1" sheetId="3" r:id="rId4"/>
+    <sheet name="70 C3 disease modules " sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="364">
   <si>
     <t>core gene</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,13 +456,808 @@
   </si>
   <si>
     <t>29978, 1278, 3135, 84970, 79934, 4276, 3594, 6449, 780, 149233, 5621, 3107, 10539, 8302, 939, 54535, 27040, 170680, 8870, 29113, 2212, 3586, 100507680, 100507436, 80271, 3106, 3595, 6406, 4340</t>
+  </si>
+  <si>
+    <t>Core_GeneName</t>
+  </si>
+  <si>
+    <t>Drug target</t>
+  </si>
+  <si>
+    <t>DEG from PMID:32511476</t>
+  </si>
+  <si>
+    <t>logFC</t>
+  </si>
+  <si>
+    <t>padj</t>
+  </si>
+  <si>
+    <t>other disease name</t>
+  </si>
+  <si>
+    <t>literature verification</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>VPS11</t>
+  </si>
+  <si>
+    <t>ATP6AP1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>UBAP2</t>
+  </si>
+  <si>
+    <t>IMPDH2</t>
+  </si>
+  <si>
+    <t>RIPK1</t>
+  </si>
+  <si>
+    <t>MYCBP2</t>
+  </si>
+  <si>
+    <t>MARK1</t>
+  </si>
+  <si>
+    <t>Lung cancer</t>
+  </si>
+  <si>
+    <t>MARK3</t>
+  </si>
+  <si>
+    <t>CWC27</t>
+  </si>
+  <si>
+    <t>ERC1</t>
+  </si>
+  <si>
+    <t>PDZD11</t>
+  </si>
+  <si>
+    <t>PSMD8</t>
+  </si>
+  <si>
+    <t>NUP62</t>
+  </si>
+  <si>
+    <t>ZNF318</t>
+  </si>
+  <si>
+    <t>NUPL1</t>
+  </si>
+  <si>
+    <t>POLA2</t>
+  </si>
+  <si>
+    <t>CHMP2A</t>
+  </si>
+  <si>
+    <t>RAB8A</t>
+  </si>
+  <si>
+    <t>NUP54</t>
+  </si>
+  <si>
+    <t>CEP68</t>
+  </si>
+  <si>
+    <t>RAB10</t>
+  </si>
+  <si>
+    <t>AP2M1</t>
+  </si>
+  <si>
+    <t>AP2A2</t>
+  </si>
+  <si>
+    <t>PMPCA</t>
+  </si>
+  <si>
+    <t>SUN2</t>
+  </si>
+  <si>
+    <t>GORASP1</t>
+  </si>
+  <si>
+    <t>PPIL3</t>
+  </si>
+  <si>
+    <t>G3BP2</t>
+  </si>
+  <si>
+    <t>MIB1</t>
+  </si>
+  <si>
+    <t>Cardiomyopathy</t>
+  </si>
+  <si>
+    <t>PKP2</t>
+  </si>
+  <si>
+    <t>RAB7A</t>
+  </si>
+  <si>
+    <t>PLEKHA5</t>
+  </si>
+  <si>
+    <t>RAB1A</t>
+  </si>
+  <si>
+    <t>RAB2A</t>
+  </si>
+  <si>
+    <t>GOLGA2</t>
+  </si>
+  <si>
+    <t>GOLGA3</t>
+  </si>
+  <si>
+    <t>GOLGB1</t>
+  </si>
+  <si>
+    <t>RAB5C</t>
+  </si>
+  <si>
+    <t>STOML2</t>
+  </si>
+  <si>
+    <t>The current landscape of coronavirus-host protein-protein interactions</t>
+  </si>
+  <si>
+    <t>P4HA2</t>
+  </si>
+  <si>
+    <t>USP13</t>
+  </si>
+  <si>
+    <t>Molecular profiling of immune cell-enriched Severe Acute Respiratory Syndrome Coronavirus 2 (SARS-CoV-2) interacting protein USP13</t>
+  </si>
+  <si>
+    <t>RAE1</t>
+  </si>
+  <si>
+    <t>TAPT1</t>
+  </si>
+  <si>
+    <t>PMPCB</t>
+  </si>
+  <si>
+    <t>VPS39</t>
+  </si>
+  <si>
+    <t>PTBP2</t>
+  </si>
+  <si>
+    <t>POLA1</t>
+  </si>
+  <si>
+    <t>NUP88</t>
+  </si>
+  <si>
+    <t>NUP98</t>
+  </si>
+  <si>
+    <t>TRMT1</t>
+  </si>
+  <si>
+    <t>THTPA</t>
+  </si>
+  <si>
+    <t>NUP214</t>
+  </si>
+  <si>
+    <t>AP3B1</t>
+  </si>
+  <si>
+    <t>ARF6</t>
+  </si>
+  <si>
+    <t>MIPOL1</t>
+  </si>
+  <si>
+    <t>SCCPDH</t>
+  </si>
+  <si>
+    <t>AKAP9</t>
+  </si>
+  <si>
+    <t>G3BP1</t>
+  </si>
+  <si>
+    <t>GOLGA7</t>
+  </si>
+  <si>
+    <t>CEP250</t>
+  </si>
+  <si>
+    <t>PRIM1</t>
+  </si>
+  <si>
+    <t>PRIM2</t>
+  </si>
+  <si>
+    <t>PDE4DIP</t>
+  </si>
+  <si>
+    <t>Transcriptomic analyses suggest that mucopolysaccharidosis patients may be less susceptible to COVID-19</t>
+  </si>
+  <si>
+    <t>PRKACA</t>
+  </si>
+  <si>
+    <t>CEP135</t>
+  </si>
+  <si>
+    <t>NINL</t>
+  </si>
+  <si>
+    <t>PRKAR2A</t>
+  </si>
+  <si>
+    <t>PRKAR2B</t>
+  </si>
+  <si>
+    <t>Parkinson's Disease</t>
+  </si>
+  <si>
+    <t>INTS4</t>
+  </si>
+  <si>
+    <t>CDK5RAP2</t>
+  </si>
+  <si>
+    <t>RNF41</t>
+  </si>
+  <si>
+    <t>MARK2</t>
+  </si>
+  <si>
+    <t>USP54</t>
+  </si>
+  <si>
+    <t>NUTF2</t>
+  </si>
+  <si>
+    <t>RBM41</t>
+  </si>
+  <si>
+    <t>PCNT</t>
+  </si>
+  <si>
+    <t>NIN</t>
+  </si>
+  <si>
+    <t>1. Sunitinib reduces the infection of SARS-CoV, MERS-CoV and SARS-CoV-2 partially by inhibiting AP2M1 phosphorylation
+2. Viruses harness YxxØ motif to interact with host AP2M1 for replication: A vulnerable broad-spectrum antiviral target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33083006
+32923629</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disease biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBAP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWC27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERC1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDZD11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSMD8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZNF318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATP6AP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMPDH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIPK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYCBP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARK1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUP62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUPL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHMP2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAB8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUP54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEP68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAB10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP2M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP2A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMPCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parkinson's Disease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GORASP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPIL3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3BP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PKP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAB7A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLEKHA5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAB1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLGA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLGB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAB5C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOML2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4HA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USP13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAPT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMPCB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPS39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PTBP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POLA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUP88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRMT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLU7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THTPA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUP214</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP3B1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARF6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIPOL1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCPDH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AKAP9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3BP1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLGA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEP250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDE4DIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRKACA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEP135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NINL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRKAR2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTS4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDK5RAP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNF41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32353859 21903422</t>
+  </si>
+  <si>
+    <t>NIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBM41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUTF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USP54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MARK2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●</t>
+  </si>
+  <si>
+    <t>▲</t>
+  </si>
+  <si>
+    <t>★: Drug target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▲: Genes for diseases associated with COVID-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★▲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proteome-wide Data Analysis Reveals Tissue-specific Network Associated with SARS-CoV-2 Infection</t>
+  </si>
+  <si>
+    <t>Genetic architecture of host proteins interacting with SARS-CoV-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAB2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overexpression of SARS-CoV-2 protein ORF6 dislocates RAE1 and NUP98 from the nuclear pore complex</t>
+  </si>
+  <si>
+    <t>Genomic discovery of an evolutionarily programmed modality for small-molecule targeting of an intractable protein surface</t>
+  </si>
+  <si>
+    <t>PRKAR2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene for diseases associated with COVID-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●: DEGs(Differential Expression Genes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cardiomyopathy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPS11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Identification of Required Host Factors for SARS-CoV-2 Infection in Human Cells
+2. Stukalov et al. Multi-level proteomics reveals host-perturbation strategies of SARS-CoV-2 and SARS-CoV bioRxiv pre-print</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bioRxiv pre-print</t>
+  </si>
+  <si>
+    <t>33147445
+bioRxiv pre-print</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Understand variability of COVID-19 through population and tissue variations in expression of SARS-CoV-2 host genes
+2. Bouhaddou et al. The Global Phosphorylation Landscape of SARS-CoV-2 Infection. Cell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33072849
+32645325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. SARS-CoV-2 Orf6 hijacks Nup98 to block STAT nuclear import and antagonize interferon signaling
+2. Bouhaddou et al. The Global Phosphorylation Landscape of SARS-CoV-2 Infection. Cell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33097660
+32645325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stukalov et al. Multi-level proteomics reveals host-perturbation strategies of SARS-CoV-2 and SARS-CoV </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stukalov et al. Multi-level proteomics reveals host-perturbation strategies of SARS-CoV-2 and SARS-CoV </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bouhaddou et al. The Global Phosphorylation Landscape of SARS-CoV-2 Infection. Cell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bouhaddou et al. The Global Phosphorylation Landscape of SARS-CoV-2 Infection. Cell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klann et al. Growth factor receptor signaling inhibition prevents SARSCoV-2 replication. Molecular Cell. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stukalov et al. Multi-level proteomics reveals host-perturbation strategies of SARS-CoV-2 and SARS-CoV </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stukalov et al. Multi-level proteomics reveals host-perturbation strategies of SARS-CoV-2 and SARS-CoV </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bioRxiv pre-print</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. A SARS-CoV-2 protein interaction map reveals targets for drug repurposing
+2.Mapping a dynamic innate immunity protein interaction network regulating type I interferon production</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. ACE2 Expression is Increased in the Lungs of Patients with Comorbidities Associated with Severe COVID-19
+2. Irisin modulates genes associated with severe coronavirus disease (COVID-19) outcome in human subcutaneous adipocytes cell culture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32526012
+32593740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stukalov et al. Multi-level proteomics reveals host-perturbation strategies of SARS-CoV-2 and SARS-CoV </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial whole-genome sequencing and analysis of the host genetic contribution to COVID-19 severity and susceptibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stukalov et al. Multi-level proteomics reveals host-perturbation strategies of SARS-CoV-2 and SARS-CoV </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bouhaddou et al. The Global Phosphorylation Landscape of SARS-CoV-2 Infection. Cell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. A SARS-CoV-2 protein interaction map reveals targets for drug repurposing
+2.TRMT1-Catalyzed tRNA Modifications Are Required for Redox Homeostasis To Ensure Proper Cellular Proliferation and Oxidative Stress Survival </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32353859
+28784718</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klann et al. Growth factor receptor signaling inhibition prevents SARSCoV-2 replication. Molecular Cell. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bouhaddou et al. The Global Phosphorylation Landscape of SARS-CoV-2 Infection. Cell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Klann et al. Growth factor receptor signaling inhibition prevents SARSCoV-2 replication. Molecular Cell. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>literature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□</t>
+  </si>
+  <si>
+    <t>★□</t>
+  </si>
+  <si>
+    <t>●▲□</t>
+  </si>
+  <si>
+    <t>□: Literature verification</t>
+  </si>
+  <si>
+    <t>▲□</t>
+  </si>
+  <si>
+    <t>●□</t>
+  </si>
+  <si>
+    <t>★▲□</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,21 +1318,76 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -546,7 +1396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,11 +1418,166 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -583,6 +1588,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J79" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="A1:J79"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Core_GeneName" dataDxfId="9"/>
+    <tableColumn id="3" name="Drug target" dataDxfId="8"/>
+    <tableColumn id="4" name="DEG from PMID:32511476" dataDxfId="7"/>
+    <tableColumn id="5" name="logFC" dataDxfId="6"/>
+    <tableColumn id="6" name="padj" dataDxfId="5"/>
+    <tableColumn id="7" name="Gene for diseases associated with COVID-19" dataDxfId="4"/>
+    <tableColumn id="8" name="other disease name" dataDxfId="3"/>
+    <tableColumn id="9" name="literature verification" dataDxfId="2"/>
+    <tableColumn id="10" name="literature" dataDxfId="1"/>
+    <tableColumn id="11" name="PMID" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -847,11 +1871,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10" style="11" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="55.25" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="48.25" customWidth="1"/>
+    <col min="12" max="12" width="44.25" customWidth="1"/>
+    <col min="13" max="13" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="S3" s="11"/>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="J4" s="19">
+        <v>32645325</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="15"/>
+      <c r="L5" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="15">
+        <v>32642770</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q6" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.41426256614628998</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1.15568283279305E-2</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J7" s="19">
+        <v>32645325</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="O7" s="11"/>
+      <c r="P7" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="S7" s="11"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="15"/>
+      <c r="L8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="J9" s="15">
+        <v>32637948</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="15"/>
+      <c r="L10" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J11" s="19">
+        <v>32645325</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="S11" s="11"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="15"/>
+      <c r="L12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="15"/>
+      <c r="L13" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="S13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="15"/>
+      <c r="L14" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="J15" s="19">
+        <v>32877642</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="S15" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="15"/>
+      <c r="L16" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J17" s="19">
+        <v>32645325</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="15"/>
+      <c r="L19" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="O19" s="11"/>
+      <c r="P19" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="15"/>
+      <c r="L20" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="15"/>
+      <c r="L21" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" s="11"/>
+      <c r="N21" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="P21" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:19" ht="57" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="L24" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="15"/>
+      <c r="L25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="J26" s="19">
+        <v>32645325</v>
+      </c>
+      <c r="L26" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="J32" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="J34" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="15">
+        <v>-0.22460818196667301</v>
+      </c>
+      <c r="E35" s="15">
+        <v>4.4132363036470203E-2</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="J37" s="15">
+        <v>33298875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="J40" s="15">
+        <v>32811513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J42" s="15">
+        <v>32735883</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="J43" s="15">
+        <v>33360543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I45" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="J46" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I48" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="J48" s="19">
+        <v>32645325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="I50" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="I51" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="J54" s="19">
+        <v>32877642</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I59" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0.329303882767013</v>
+      </c>
+      <c r="E60" s="15">
+        <v>4.9542832723359102E-3</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="J61" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="I62" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="J62" s="15">
+        <v>32606248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="15"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="15"/>
+    </row>
+    <row r="65" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I65" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="J65" s="15">
+        <v>32880920</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="15"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="15"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="15"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="15"/>
+    </row>
+    <row r="70" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="J70" s="19">
+        <v>32645325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="15"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="15"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="15"/>
+    </row>
+    <row r="74" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J74" s="19">
+        <v>32645325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="J75" s="19">
+        <v>32877642</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="15"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="15"/>
+    </row>
+    <row r="78" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I78" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="15">
+        <v>-0.353090521615743</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1.0398355745361401E-2</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B935"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K926" sqref="K926"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6635,8 +9610,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12358,8 +15333,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26199,11 +29174,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
